--- a/PC 2.0.xlsx
+++ b/PC 2.0.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Asus\Downloads\Estudo\Programacao\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9516C634-5AC6-4921-ACD1-DE9ED9715095}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{23BE2B5B-0BA7-48B9-AA10-7BEA2CD1318A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" tabRatio="857" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" tabRatio="857" activeTab="10" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Placa de video" sheetId="1" r:id="rId1"/>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="242" uniqueCount="111">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="266" uniqueCount="125">
   <si>
     <t>Marca</t>
   </si>
@@ -374,6 +374,48 @@
   </si>
   <si>
     <t>https://www.kabum.com.br/produto/110704/memoria-xpg-gammix-d10-16gb-2666mhz-ddr4-cl16-ax4u2666316g16-sbg?gclid=CjwKCAjwxqX4BRBhEiwAYtJX7bkNHO5M-JLlzxbuAi6qM9JeOCj0QpLi3ZKsBhVMYD2EmYaIEkNlfRoCMkMQAvD_BwE</t>
+  </si>
+  <si>
+    <t>https://www.pichau.com.br/hardware/processador-amd-ryzen-5-3500x-hexa-core-3-6ghz-4-1ghz-turbo-35mb-cache-am4-100-100000158box</t>
+  </si>
+  <si>
+    <t>AMD RYZEN 5 3500X</t>
+  </si>
+  <si>
+    <t>6/3,6 GHz</t>
+  </si>
+  <si>
+    <t>Pichau</t>
+  </si>
+  <si>
+    <t>240 GB (Nvme)</t>
+  </si>
+  <si>
+    <t>https://www.kabum.com.br/produto/96306/ssd-kingston-a1000-240gb-m-2-nvme-leitura-1500mb-s-gravacao-800mb-s-sa1000m8-240g</t>
+  </si>
+  <si>
+    <t>https://www.kabum.com.br/produto/100863/placa-de-video-gigabyte-nvidia-geforce-gtx-1660-ti-oc-6g-gddr6-gv-n166toc-6gd</t>
+  </si>
+  <si>
+    <t>GTX 1660 TI</t>
+  </si>
+  <si>
+    <t>6 GB GDDR6</t>
+  </si>
+  <si>
+    <t>https://www.kabum.com.br/produto/106897/placa-de-video-galax-nvidia-geforce-gtx-1660-super-1-click-oc-6gb-gddr6-60srl7dsy91s?gclid=EAIaIQobChMIjrr79Z7I6gIVkYSRCh3c7Q1mEAAYASAAEgIEA_D_BwE</t>
+  </si>
+  <si>
+    <t>1660 Super</t>
+  </si>
+  <si>
+    <t>https://www.kabum.com.br/produto/84108/hd-seagate-barracuda-1tb-3-5-sata-st1000dm010?gclid=EAIaIQobChMIq9zKiqDI6gIVAgSRCh0-dwB4EAQYASABEgIDb_D_BwE</t>
+  </si>
+  <si>
+    <t>Seage</t>
+  </si>
+  <si>
+    <t>1 TB</t>
   </si>
 </sst>
 </file>
@@ -775,10 +817,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="B2:J6"/>
+  <dimension ref="B2:J8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="I11" sqref="I11"/>
+      <selection activeCell="I9" sqref="I9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -919,6 +961,64 @@
         <v>86</v>
       </c>
     </row>
+    <row r="7" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B7">
+        <v>4</v>
+      </c>
+      <c r="C7" t="s">
+        <v>118</v>
+      </c>
+      <c r="D7" t="s">
+        <v>16</v>
+      </c>
+      <c r="E7" t="s">
+        <v>119</v>
+      </c>
+      <c r="F7" t="s">
+        <v>24</v>
+      </c>
+      <c r="G7" s="1">
+        <v>2000</v>
+      </c>
+      <c r="H7" s="1">
+        <v>2000</v>
+      </c>
+      <c r="I7" s="1">
+        <v>2000</v>
+      </c>
+      <c r="J7" s="2" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="8" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B8">
+        <v>5</v>
+      </c>
+      <c r="C8" t="s">
+        <v>121</v>
+      </c>
+      <c r="D8" t="s">
+        <v>16</v>
+      </c>
+      <c r="E8" t="s">
+        <v>119</v>
+      </c>
+      <c r="F8" t="s">
+        <v>24</v>
+      </c>
+      <c r="G8" s="1">
+        <v>2300</v>
+      </c>
+      <c r="H8" s="1">
+        <v>2300</v>
+      </c>
+      <c r="I8" s="1">
+        <v>2300</v>
+      </c>
+      <c r="J8" s="2" t="s">
+        <v>120</v>
+      </c>
+    </row>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="B2:I2"/>
@@ -927,6 +1027,8 @@
     <hyperlink ref="J4" r:id="rId1" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
     <hyperlink ref="J5" r:id="rId2" xr:uid="{00000000-0004-0000-0000-000001000000}"/>
     <hyperlink ref="J6" r:id="rId3" xr:uid="{00000000-0004-0000-0000-000002000000}"/>
+    <hyperlink ref="J7" r:id="rId4" xr:uid="{B98B531F-1AB6-4E6D-BCD3-4F9A94E55AEA}"/>
+    <hyperlink ref="J8" r:id="rId5" xr:uid="{53D79CB2-A594-4EB0-8860-C7D96AD0517E}"/>
   </hyperlinks>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
 </worksheet>
@@ -1108,8 +1210,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0900-000000000000}">
   <dimension ref="B1:I16"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G5" sqref="G5"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D12" sqref="D12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1177,31 +1279,31 @@
         <v>76</v>
       </c>
       <c r="C4">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D4" t="str">
         <f>INDEX('Placa de video'!$B$4:$J$50,MATCH(Resumo!$C$4,'Placa de video'!$B$4:$B$35,0),MATCH(D3,'Placa de video'!$B$3:$T$3,0))</f>
-        <v>Gigabyte</v>
+        <v>Asus</v>
       </c>
       <c r="E4" t="str">
         <f>INDEX('Placa de video'!$B$4:$J$50,MATCH(Resumo!$C$4,'Placa de video'!$B$4:$B$35,0),MATCH(E3,'Placa de video'!$B$3:$T$3,0))</f>
-        <v>Amazon</v>
+        <v>B2W</v>
       </c>
       <c r="F4" s="3">
         <f>INDEX('Placa de video'!$B$4:$J$50,MATCH(Resumo!$C$4,'Placa de video'!$B$4:$B$35,0),MATCH(F3,'Placa de video'!$B$3:$T$3,0))</f>
-        <v>917</v>
+        <v>1200</v>
       </c>
       <c r="G4" s="3">
         <f>INDEX('Placa de video'!$B$4:$J$50,MATCH(Resumo!$C$4,'Placa de video'!$B$4:$B$35,0),MATCH(G3,'Placa de video'!$B$3:$T$3,0))</f>
-        <v>1070</v>
+        <v>1550</v>
       </c>
       <c r="H4" s="3">
         <f>INDEX('Placa de video'!$B$4:$J$50,MATCH(Resumo!$C$4,'Placa de video'!$B$4:$B$35,0),MATCH(H3,'Placa de video'!$B$3:$T$3,0))</f>
-        <v>1005</v>
+        <v>1550</v>
       </c>
       <c r="I4" t="str">
         <f>INDEX('Placa de video'!$B$4:$J$50,MATCH(Resumo!$C$4,'Placa de video'!$B$4:$B$35,0),MATCH(I3,'Placa de video'!$B$3:$T$3,0))</f>
-        <v>https://www.buscape.com.br/placa-de-video/placa-de-video-nvidia-geforce-gtx-1060-3-gb-gddr5-192-bits-gigabyte-gv-n1060wf2oc-3gd?_lc=88&amp;q=geforce%20gtx%201060%203%20gb</v>
+        <v>https://www.buscape.com.br/placa-de-video/placa-de-video-nvidia-geforce-gtx-1060-6-gb-gddr5-192-bits-asus-ex-gtx1060-o6g?_lc=88&amp;q=geforce%20gtx%201060%206%20gb</v>
       </c>
     </row>
     <row r="5" spans="2:9" x14ac:dyDescent="0.25">
@@ -1209,31 +1311,31 @@
         <v>18</v>
       </c>
       <c r="C5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D5" t="str">
         <f>INDEX(Processador!$B$5:$AC$28,MATCH(Resumo!$C$5,Processador!$B$5:$B$35,0),MATCH(Resumo!D3,Processador!$B$4:$AC$4,0))</f>
-        <v>Intel</v>
+        <v>AMD</v>
       </c>
       <c r="E5" t="str">
         <f>INDEX(Processador!$B$5:$AC$28,MATCH(Resumo!$C$5,Processador!$B$5:$B$35,0),MATCH(Resumo!E3,Processador!$B$4:$AC$4,0))</f>
-        <v>Kabum</v>
+        <v>Pichau</v>
       </c>
       <c r="F5" s="3">
         <f>INDEX(Processador!$B$5:$AC$28,MATCH(Resumo!$C$5,Processador!$B$5:$B$35,0),MATCH(Resumo!F3,Processador!$B$4:$AC$4,0))</f>
-        <v>839</v>
+        <v>1250</v>
       </c>
       <c r="G5" s="3">
         <f>INDEX(Processador!$B$5:$AC$28,MATCH(Resumo!$C$5,Processador!$B$5:$B$35,0),MATCH(Resumo!G3,Processador!$B$4:$AC$4,0))</f>
-        <v>839</v>
+        <v>1250</v>
       </c>
       <c r="H5" s="3">
         <f>INDEX(Processador!$B$5:$AC$28,MATCH(Resumo!$C$5,Processador!$B$5:$B$35,0),MATCH(Resumo!H3,Processador!$B$4:$AC$4,0))</f>
-        <v>839</v>
+        <v>1250</v>
       </c>
       <c r="I5" t="str">
         <f>INDEX(Processador!$B$5:$AC$28,MATCH(Resumo!$C$5,Processador!$B$5:$B$35,0),MATCH(Resumo!I3,Processador!$B$4:$AC$4,0))</f>
-        <v>https://www.kabum.com.br/cgi-local/site/produtos/descricao.cgi?codigo=99683&amp;origem=48&amp;utm_source=ZOOM&amp;utm_medium=COMPARADOR&amp;utm_term=PROCESSADOR%20INTEL%20CORE%20I5%209400F%20COFFEE%20LAKE%20CACHE%209MB%202%209GHZ%204%201GHZ%20MAX%20TURBO%20LGA%201151%20SEM%20VIDEO%20BX80684I59400F&amp;utm_content=INTEL&amp;utm_campaign=PROCESSADOR%20INTEL%20CORE%20I5%209400F%20COFFEE%20LAKE%20CACHE%209MB%202%209GHZ%204%201GHZ%20MAX%20TURBO%20LGA%201151%20SEM%20VIDEO%20BX80684I59400F</v>
+        <v>https://www.pichau.com.br/hardware/processador-amd-ryzen-5-3500x-hexa-core-3-6ghz-4-1ghz-turbo-35mb-cache-am4-100-100000158box</v>
       </c>
     </row>
     <row r="6" spans="2:9" x14ac:dyDescent="0.25">
@@ -1241,11 +1343,11 @@
         <v>78</v>
       </c>
       <c r="C6">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="D6" t="str">
         <f>INDEX('Memória RAM'!$B$4:$S$45,MATCH(Resumo!$C$6,'Memória RAM'!$B$4:$B$50,0),MATCH(Resumo!D3,'Memória RAM'!$B$3:$X$3,0))</f>
-        <v>HyperX</v>
+        <v>XPG</v>
       </c>
       <c r="E6" t="str">
         <f>INDEX('Memória RAM'!$B$4:$S$45,MATCH(Resumo!$C$6,'Memória RAM'!$B$4:$B$50,0),MATCH(Resumo!E3,'Memória RAM'!$B$3:$X$3,0))</f>
@@ -1253,19 +1355,19 @@
       </c>
       <c r="F6" s="3">
         <f>INDEX('Memória RAM'!$B$4:$S$45,MATCH(Resumo!$C$6,'Memória RAM'!$B$4:$B$50,0),MATCH(Resumo!F3,'Memória RAM'!$B$3:$X$3,0))</f>
-        <v>235</v>
+        <v>250</v>
       </c>
       <c r="G6" s="3">
         <f>INDEX('Memória RAM'!$B$4:$S$45,MATCH(Resumo!$C$6,'Memória RAM'!$B$4:$B$50,0),MATCH(Resumo!G3,'Memória RAM'!$B$3:$X$3,0))</f>
-        <v>235</v>
+        <v>250</v>
       </c>
       <c r="H6" s="3">
         <f>INDEX('Memória RAM'!$B$4:$S$45,MATCH(Resumo!$C$6,'Memória RAM'!$B$4:$B$50,0),MATCH(Resumo!H3,'Memória RAM'!$B$3:$X$3,0))</f>
-        <v>235</v>
+        <v>250</v>
       </c>
       <c r="I6" t="str">
         <f>INDEX('Memória RAM'!$B$4:$S$45,MATCH(Resumo!$C$6,'Memória RAM'!$B$4:$B$50,0),MATCH(Resumo!I3,'Memória RAM'!$B$3:$X$3,0))</f>
-        <v>https://www.kabum.com.br/cgi-local/site/produtos/descricao_ofertas.cgi?codigo=103946&amp;gclid=EAIaIQobChMI6pXqlIPm5wIVioeRCh3HRQqwEAQYASABEgKd2fD_BwE</v>
+        <v>https://www.kabum.com.br/cgi-local/site/produtos/descricao_ofertas.cgi?codigo=108237</v>
       </c>
     </row>
     <row r="7" spans="2:9" x14ac:dyDescent="0.25">
@@ -1273,11 +1375,11 @@
         <v>78</v>
       </c>
       <c r="C7">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="D7" t="str">
         <f>INDEX('Memória RAM'!$B$4:$S$45,MATCH(Resumo!$C$7,'Memória RAM'!$B$4:$B$50,0),MATCH(Resumo!D3,'Memória RAM'!$B$3:$X$3,0))</f>
-        <v>HyperX</v>
+        <v>XPG</v>
       </c>
       <c r="E7" t="str">
         <f>INDEX('Memória RAM'!$B$4:$S$45,MATCH(Resumo!$C$7,'Memória RAM'!$B$4:$B$50,0),MATCH(Resumo!E3,'Memória RAM'!$B$3:$X$3,0))</f>
@@ -1285,19 +1387,19 @@
       </c>
       <c r="F7" s="3">
         <f>INDEX('Memória RAM'!$B$4:$S$45,MATCH(Resumo!$C$7,'Memória RAM'!$B$4:$B$50,0),MATCH(Resumo!F3,'Memória RAM'!$B$3:$X$3,0))</f>
-        <v>235</v>
+        <v>250</v>
       </c>
       <c r="G7" s="3">
         <f>INDEX('Memória RAM'!$B$4:$S$45,MATCH(Resumo!$C$7,'Memória RAM'!$B$4:$B$50,0),MATCH(Resumo!G3,'Memória RAM'!$B$3:$X$3,0))</f>
-        <v>235</v>
+        <v>250</v>
       </c>
       <c r="H7" s="3">
         <f>INDEX('Memória RAM'!$B$4:$S$45,MATCH(Resumo!$C$7,'Memória RAM'!$B$4:$B$50,0),MATCH(Resumo!H3,'Memória RAM'!$B$3:$X$3,0))</f>
-        <v>235</v>
+        <v>250</v>
       </c>
       <c r="I7" t="str">
         <f>INDEX('Memória RAM'!$B$4:$S$45,MATCH(Resumo!$C$7,'Memória RAM'!$B$4:$B$50,0),MATCH(Resumo!I3,'Memória RAM'!$B$3:$X$3,0))</f>
-        <v>https://www.kabum.com.br/cgi-local/site/produtos/descricao_ofertas.cgi?codigo=103946&amp;gclid=EAIaIQobChMI6pXqlIPm5wIVioeRCh3HRQqwEAQYASABEgKd2fD_BwE</v>
+        <v>https://www.kabum.com.br/cgi-local/site/produtos/descricao_ofertas.cgi?codigo=108237</v>
       </c>
     </row>
     <row r="8" spans="2:9" x14ac:dyDescent="0.25">
@@ -1305,7 +1407,7 @@
         <v>79</v>
       </c>
       <c r="C8">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D8" t="str">
         <f>INDEX(SSD!$B$4:$S$74,MATCH(Resumo!$C$8,SSD!$B$4:$B$42,0),MATCH(Resumo!D3,SSD!$B$3:$S$3,0))</f>
@@ -1317,19 +1419,19 @@
       </c>
       <c r="F8" s="3">
         <f>INDEX(SSD!$B$4:$S$74,MATCH(Resumo!$C$8,SSD!$B$4:$B$42,0),MATCH(Resumo!F3,SSD!$B$3:$S$3,0))</f>
-        <v>199</v>
+        <v>323</v>
       </c>
       <c r="G8" s="3">
         <f>INDEX(SSD!$B$4:$S$74,MATCH(Resumo!$C$8,SSD!$B$4:$B$42,0),MATCH(Resumo!G3,SSD!$B$3:$S$3,0))</f>
-        <v>199</v>
+        <v>323</v>
       </c>
       <c r="H8" s="3">
         <f>INDEX(SSD!$B$4:$S$74,MATCH(Resumo!$C$8,SSD!$B$4:$B$42,0),MATCH(Resumo!H3,SSD!$B$3:$S$3,0))</f>
-        <v>199</v>
+        <v>323</v>
       </c>
       <c r="I8" t="str">
         <f>INDEX(SSD!$B$4:$S$74,MATCH(Resumo!$C$8,SSD!$B$4:$B$42,0),MATCH(Resumo!I3,SSD!$B$3:$S$3,0))</f>
-        <v>https://www.kabum.com.br/cgi-local/site/produtos/descricao_ofertas.cgi?codigo=85197&amp;gclid=EAIaIQobChMIoK6eyYbm5wIViQSRCh0F4A5SEAQYASABEgKJxfD_BwE</v>
+        <v>https://www.kabum.com.br/produto/96306/ssd-kingston-a1000-240gb-m-2-nvme-leitura-1500mb-s-gravacao-800mb-s-sa1000m8-240g</v>
       </c>
     </row>
     <row r="9" spans="2:9" x14ac:dyDescent="0.25">
@@ -1497,11 +1599,11 @@
         <v>101</v>
       </c>
       <c r="C14">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D14" t="str">
         <f>INDEX(HD!$B$4:$R$41,MATCH(Resumo!$C$14,HD!$B$4:$B$75,0),MATCH(Resumo!D3,HD!$B$3:$R$3,0))</f>
-        <v>Seagate</v>
+        <v>Seage</v>
       </c>
       <c r="E14" t="str">
         <f>INDEX(HD!$B$4:$R$41,MATCH(Resumo!$C$14,HD!$B$4:$B$75,0),MATCH(Resumo!E3,HD!$B$3:$R$3,0))</f>
@@ -1521,7 +1623,7 @@
       </c>
       <c r="I14" t="str">
         <f>INDEX(HD!$B$4:$R$41,MATCH(Resumo!$C$14,HD!$B$4:$B$75,0),MATCH(Resumo!I3,HD!$B$3:$R$3,0))</f>
-        <v>https://www.kabum.com.br/cgi-local/site/produtos/descricao_ofertas.cgi?codigo=100916</v>
+        <v>https://www.kabum.com.br/produto/84108/hd-seagate-barracuda-1tb-3-5-sata-st1000dm010?gclid=EAIaIQobChMIq9zKiqDI6gIVAgSRCh0-dwB4EAQYASABEgIDb_D_BwE</v>
       </c>
     </row>
     <row r="15" spans="2:9" x14ac:dyDescent="0.25">
@@ -1529,31 +1631,31 @@
         <v>83</v>
       </c>
       <c r="C15">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D15" t="str">
         <f>INDEX(Teclado!$B$4:$U$36,MATCH(Resumo!$C$15,Teclado!$B$4:$B$131,0),MATCH(Resumo!D3,Teclado!$B$3:$U$3,0))</f>
-        <v>Gfallen</v>
+        <v>CoolerMaster</v>
       </c>
       <c r="E15" t="str">
         <f>INDEX(Teclado!$B$4:$U$36,MATCH(Resumo!$C$15,Teclado!$B$4:$B$131,0),MATCH(Resumo!E3,Teclado!$B$3:$U$3,0))</f>
-        <v>Fallen Store/Kabum</v>
+        <v>Kabum</v>
       </c>
       <c r="F15" s="3">
         <f>INDEX(Teclado!$B$4:$U$36,MATCH(Resumo!$C$15,Teclado!$B$4:$B$131,0),MATCH(Resumo!F3,Teclado!$B$3:$U$3,0))</f>
-        <v>199</v>
+        <v>170</v>
       </c>
       <c r="G15" s="3">
         <f>INDEX(Teclado!$B$4:$U$36,MATCH(Resumo!$C$15,Teclado!$B$4:$B$131,0),MATCH(Resumo!G3,Teclado!$B$3:$U$3,0))</f>
-        <v>199</v>
+        <v>170</v>
       </c>
       <c r="H15" s="3">
         <f>INDEX(Teclado!$B$4:$U$36,MATCH(Resumo!$C$15,Teclado!$B$4:$B$131,0),MATCH(Resumo!H3,Teclado!$B$3:$U$3,0))</f>
-        <v>199</v>
+        <v>170</v>
       </c>
       <c r="I15" t="str">
         <f>INDEX(Teclado!$B$4:$U$36,MATCH(Resumo!$C$15,Teclado!$B$4:$B$131,0),MATCH(Resumo!I3,Teclado!$B$3:$U$3,0))</f>
-        <v>https://www.kabum.com.br/cgi-local/site/produtos/descricao_ofertas.cgi?codigo=101512&amp;origem=48&amp;utm_source=ZOOM&amp;utm_medium=COMPARADOR&amp;utm_term=TECLADO%20SEMI%20MECANICO%20GAMER%20GFALLEN%20ECO%20RGB%20US%20TE%20GA%20FN%20EC&amp;utm_content=COM-FIO&amp;utm_campaign=TECLADO%20SEMI%20MECANICO%20GAMER%20GFALLEN%20ECO%20RGB%20US%20TE%20GA%20FN%20EC</v>
+        <v>https://www.kabum.com.br/cgi-local/site/produtos/descricao_ofertas.cgi?codigo=86100&amp;origem=48&amp;utm_source=ZOOM&amp;utm_medium=COMPARADOR&amp;utm_term=TECLADO%20GAMER%20COOLER%20MASTER%20MASTERKEYS%20LITE%20L%20RGB%20ABNT2%20SGK%203040%20KKMF1%20BR&amp;utm_content=COM-FIO&amp;utm_campaign=TECLADO%20GAMER%20COOLER%20MASTER%20MASTERKEYS%20LITE%20L%20RGB%20ABNT2%20SGK%203040%20KKMF1%20BR</v>
       </c>
     </row>
     <row r="16" spans="2:9" x14ac:dyDescent="0.25">
@@ -1565,15 +1667,15 @@
       <c r="E16" s="5"/>
       <c r="F16" s="4">
         <f t="shared" ref="F16:H16" si="0">SUM(F4:F15)</f>
-        <v>4659</v>
+        <v>5478</v>
       </c>
       <c r="G16" s="4">
         <f t="shared" si="0"/>
-        <v>5175</v>
+        <v>6191</v>
       </c>
       <c r="H16" s="4">
         <f t="shared" si="0"/>
-        <v>5110</v>
+        <v>6191</v>
       </c>
     </row>
   </sheetData>
@@ -1684,10 +1786,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="B3:J21"/>
+  <dimension ref="A3:J9"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D6" sqref="D6"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1695,11 +1797,12 @@
     <col min="4" max="4" width="19.42578125" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="23" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="11.85546875" style="3" bestFit="1" customWidth="1"/>
-    <col min="8" max="9" width="10.140625" style="3" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="11.7109375" style="3" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.140625" style="3" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="255.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B3" s="5" t="s">
         <v>3</v>
       </c>
@@ -1711,7 +1814,7 @@
       <c r="H3" s="5"/>
       <c r="I3" s="5"/>
     </row>
-    <row r="4" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B4" t="s">
         <v>74</v>
       </c>
@@ -1740,7 +1843,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="5" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B5">
         <v>1</v>
       </c>
@@ -1769,7 +1872,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="6" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B6">
         <v>2</v>
       </c>
@@ -1798,13 +1901,42 @@
         <v>28</v>
       </c>
     </row>
-    <row r="20" spans="9:9" x14ac:dyDescent="0.25">
-      <c r="I20" s="3" t="s">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B7">
+        <v>3</v>
+      </c>
+      <c r="C7" t="s">
+        <v>25</v>
+      </c>
+      <c r="D7" t="s">
+        <v>112</v>
+      </c>
+      <c r="E7" t="s">
+        <v>113</v>
+      </c>
+      <c r="F7" t="s">
+        <v>114</v>
+      </c>
+      <c r="G7" s="3">
+        <v>1250</v>
+      </c>
+      <c r="H7" s="3">
+        <v>1250</v>
+      </c>
+      <c r="I7" s="3">
+        <v>1250</v>
+      </c>
+      <c r="J7" s="2" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A8" s="3" t="s">
         <v>90</v>
       </c>
     </row>
-    <row r="21" spans="9:9" x14ac:dyDescent="0.25">
-      <c r="I21" s="3" t="s">
+    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A9" s="3" t="s">
         <v>91</v>
       </c>
     </row>
@@ -1815,9 +1947,10 @@
   <hyperlinks>
     <hyperlink ref="J5" r:id="rId1" display="https://www.kabum.com.br/cgi-local/site/produtos/descricao.cgi?codigo=99683&amp;origem=48&amp;utm_source=ZOOM&amp;utm_medium=COMPARADOR&amp;utm_term=PROCESSADOR%20INTEL%20CORE%20I5%209400F%20COFFEE%20LAKE%20CACHE%209MB%202%209GHZ%204%201GHZ%20MAX%20TURBO%20LGA%201151%20SEM%20VIDEO%20BX80684I59400F&amp;utm_content=INTEL&amp;utm_campaign=PROCESSADOR%20INTEL%20CORE%20I5%209400F%20COFFEE%20LAKE%20CACHE%209MB%202%209GHZ%204%201GHZ%20MAX%20TURBO%20LGA%201151%20SEM%20VIDEO%20BX80684I59400F" xr:uid="{00000000-0004-0000-0100-000000000000}"/>
     <hyperlink ref="J6" r:id="rId2" display="https://www.kabum.com.br/cgi-local/site/produtos/descricao.cgi?codigo=95563&amp;origem=48&amp;utm_source=ZOOM&amp;utm_medium=COMPARADOR&amp;utm_term=PROCESSADOR%20AMD%20RYZEN%205%202600X%20COOLER%20WRAITH%20SPIRE%20CACHE%2019MB%203%206GHZ%204%2025GHZ%20MAX%20TURBO%20AM4%20SEM%20VIDEO%20YD260XBCAFBOX&amp;utm_content=AMD&amp;utm_campaign=PROCESSADOR%20AMD%20RYZEN%205%202600X%20COOLER%20WRAITH%20SPIRE%20CACHE%2019MB%203%206GHZ%204%2025GHZ%20MAX%20TURBO%20AM4%20SEM%20VIDEO%20YD260XBCAFBOX" xr:uid="{00000000-0004-0000-0100-000001000000}"/>
+    <hyperlink ref="J7" r:id="rId3" xr:uid="{2034CF8A-D16A-47E3-AC92-9CE2A996B89C}"/>
   </hyperlinks>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId4"/>
 </worksheet>
 </file>
 
@@ -1826,7 +1959,7 @@
   <dimension ref="B2:I5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F5" sqref="F5"/>
+      <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1940,7 +2073,7 @@
   <dimension ref="B2:J8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="I12" sqref="I12"/>
+      <selection activeCell="B7" sqref="B7:I7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2155,14 +2288,15 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
-  <dimension ref="B2:I6"/>
+  <dimension ref="B2:I7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="I4" sqref="I4"/>
+      <selection activeCell="J17" sqref="J17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
+    <col min="4" max="4" width="14.140625" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="14" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="11.85546875" style="3" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="10.140625" style="3" bestFit="1" customWidth="1"/>
@@ -2284,6 +2418,32 @@
         <v>46</v>
       </c>
     </row>
+    <row r="7" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B7">
+        <v>4</v>
+      </c>
+      <c r="C7" t="s">
+        <v>39</v>
+      </c>
+      <c r="D7" t="s">
+        <v>115</v>
+      </c>
+      <c r="E7" t="s">
+        <v>24</v>
+      </c>
+      <c r="F7" s="3">
+        <v>323</v>
+      </c>
+      <c r="G7" s="3">
+        <v>323</v>
+      </c>
+      <c r="H7" s="3">
+        <v>323</v>
+      </c>
+      <c r="I7" s="2" t="s">
+        <v>116</v>
+      </c>
+    </row>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="B2:H2"/>
@@ -2293,6 +2453,7 @@
     <hyperlink ref="I4" r:id="rId1" xr:uid="{00000000-0004-0000-0300-000000000000}"/>
     <hyperlink ref="I5" r:id="rId2" xr:uid="{00000000-0004-0000-0300-000001000000}"/>
     <hyperlink ref="I6" r:id="rId3" xr:uid="{00000000-0004-0000-0300-000002000000}"/>
+    <hyperlink ref="I7" r:id="rId4" xr:uid="{86CE33CA-05B7-44CE-A27F-9765046DCB05}"/>
   </hyperlinks>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
 </worksheet>
@@ -2300,10 +2461,10 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
-  <dimension ref="B2:J5"/>
+  <dimension ref="B2:J6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G7" sqref="G7"/>
+      <selection activeCell="H8" sqref="H8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2412,6 +2573,35 @@
         <v>99</v>
       </c>
     </row>
+    <row r="6" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B6">
+        <v>3</v>
+      </c>
+      <c r="C6" t="s">
+        <v>123</v>
+      </c>
+      <c r="D6" t="s">
+        <v>89</v>
+      </c>
+      <c r="E6" t="s">
+        <v>124</v>
+      </c>
+      <c r="F6" t="s">
+        <v>24</v>
+      </c>
+      <c r="G6" s="3">
+        <v>390</v>
+      </c>
+      <c r="H6" s="3">
+        <v>390</v>
+      </c>
+      <c r="I6" s="3">
+        <v>390</v>
+      </c>
+      <c r="J6" s="2" t="s">
+        <v>122</v>
+      </c>
+    </row>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="B2:I2"/>
@@ -2419,9 +2609,10 @@
   <hyperlinks>
     <hyperlink ref="J5" r:id="rId1" xr:uid="{26AFACC2-77DB-47A6-B55B-64DD979FD6B9}"/>
     <hyperlink ref="J4" r:id="rId2" xr:uid="{ABFCF115-0BBB-49E5-8498-0296A327FF40}"/>
+    <hyperlink ref="J6" r:id="rId3" xr:uid="{E943E6B0-8205-4B7A-A607-12BFABB0F654}"/>
   </hyperlinks>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
-  <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId3"/>
+  <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId4"/>
 </worksheet>
 </file>
 
@@ -2600,7 +2791,7 @@
   <dimension ref="B2:J8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H9" sqref="H9"/>
+      <selection activeCell="J7" sqref="J7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
